--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H2">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I2">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J2">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N2">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O2">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P2">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q2">
-        <v>12.86159739994444</v>
+        <v>26.16112321919912</v>
       </c>
       <c r="R2">
-        <v>115.7543765995</v>
+        <v>235.450108972792</v>
       </c>
       <c r="S2">
-        <v>0.0409799435844323</v>
+        <v>0.06538020521914073</v>
       </c>
       <c r="T2">
-        <v>0.0409799435844323</v>
+        <v>0.06538020521914074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H3">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I3">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J3">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>166.821129</v>
       </c>
       <c r="O3">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P3">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q3">
-        <v>20.741223146509</v>
+        <v>33.83796073499801</v>
       </c>
       <c r="R3">
-        <v>186.671008318581</v>
+        <v>304.541646614982</v>
       </c>
       <c r="S3">
-        <v>0.06608620437922678</v>
+        <v>0.084565666333004</v>
       </c>
       <c r="T3">
-        <v>0.06608620437922678</v>
+        <v>0.08456566633300401</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H4">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I4">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J4">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N4">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O4">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P4">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q4">
-        <v>11.34094356843111</v>
+        <v>22.34918083323334</v>
       </c>
       <c r="R4">
-        <v>102.06849211588</v>
+        <v>201.1426274991001</v>
       </c>
       <c r="S4">
-        <v>0.03613479828178611</v>
+        <v>0.05585364271684413</v>
       </c>
       <c r="T4">
-        <v>0.03613479828178611</v>
+        <v>0.05585364271684413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H5">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I5">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J5">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N5">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O5">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P5">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q5">
-        <v>2.521596205947333</v>
+        <v>4.491793166911556</v>
       </c>
       <c r="R5">
-        <v>22.694365853526</v>
+        <v>40.426138502204</v>
       </c>
       <c r="S5">
-        <v>0.00803437295144121</v>
+        <v>0.0112256020735031</v>
       </c>
       <c r="T5">
-        <v>0.008034372951441212</v>
+        <v>0.0112256020735031</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H6">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I6">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J6">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N6">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O6">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P6">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q6">
-        <v>11.15806906114278</v>
+        <v>17.40389674674623</v>
       </c>
       <c r="R6">
-        <v>100.422621550285</v>
+        <v>156.635070720716</v>
       </c>
       <c r="S6">
-        <v>0.03555211894898885</v>
+        <v>0.04349470515394172</v>
       </c>
       <c r="T6">
-        <v>0.03555211894898885</v>
+        <v>0.04349470515394172</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.454042</v>
       </c>
       <c r="I7">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J7">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N7">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O7">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P7">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q7">
-        <v>28.20662241233334</v>
+        <v>35.16760089084534</v>
       </c>
       <c r="R7">
-        <v>253.859601711</v>
+        <v>316.508408017608</v>
       </c>
       <c r="S7">
-        <v>0.08987264639225893</v>
+        <v>0.08788861793292274</v>
       </c>
       <c r="T7">
-        <v>0.08987264639225893</v>
+        <v>0.08788861793292274</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.454042</v>
       </c>
       <c r="I8">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J8">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>166.821129</v>
       </c>
       <c r="O8">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P8">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q8">
-        <v>45.48733967260201</v>
+        <v>45.487339672602</v>
       </c>
       <c r="R8">
-        <v>409.3860570534181</v>
+        <v>409.386057053418</v>
       </c>
       <c r="S8">
-        <v>0.1449329002941105</v>
+        <v>0.1136790487835379</v>
       </c>
       <c r="T8">
-        <v>0.1449329002941105</v>
+        <v>0.1136790487835379</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.454042</v>
       </c>
       <c r="I9">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J9">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N9">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O9">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P9">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q9">
-        <v>24.87169385629333</v>
+        <v>30.04332288010001</v>
       </c>
       <c r="R9">
-        <v>223.84524470664</v>
+        <v>270.3899059209</v>
       </c>
       <c r="S9">
-        <v>0.07924681354779267</v>
+        <v>0.07508235020751441</v>
       </c>
       <c r="T9">
-        <v>0.07924681354779267</v>
+        <v>0.07508235020751441</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.454042</v>
       </c>
       <c r="I10">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J10">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N10">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O10">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P10">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q10">
-        <v>5.530083849292001</v>
+        <v>6.038180702510668</v>
       </c>
       <c r="R10">
-        <v>49.77075464362801</v>
+        <v>54.34362632259601</v>
       </c>
       <c r="S10">
-        <v>0.01762009158847915</v>
+        <v>0.0150902348562268</v>
       </c>
       <c r="T10">
-        <v>0.01762009158847915</v>
+        <v>0.0150902348562268</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.454042</v>
       </c>
       <c r="I11">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J11">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N11">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O11">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P11">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q11">
-        <v>24.47063386230334</v>
+        <v>23.39552815094267</v>
       </c>
       <c r="R11">
-        <v>220.23570476073</v>
+        <v>210.559753358484</v>
       </c>
       <c r="S11">
-        <v>0.07796894615569455</v>
+        <v>0.05846860698229771</v>
       </c>
       <c r="T11">
-        <v>0.07796894615569455</v>
+        <v>0.05846860698229771</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H12">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I12">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J12">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N12">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O12">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P12">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q12">
-        <v>10.1359004265</v>
+        <v>14.73864118846311</v>
       </c>
       <c r="R12">
-        <v>91.22310383849999</v>
+        <v>132.647770696168</v>
       </c>
       <c r="S12">
-        <v>0.03229525965858544</v>
+        <v>0.03683386900015902</v>
       </c>
       <c r="T12">
-        <v>0.03229525965858545</v>
+        <v>0.03683386900015902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H13">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I13">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J13">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>166.821129</v>
       </c>
       <c r="O13">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P13">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q13">
-        <v>16.345634682807</v>
+        <v>19.063614266242</v>
       </c>
       <c r="R13">
-        <v>147.110712145263</v>
+        <v>171.572528396178</v>
       </c>
       <c r="S13">
-        <v>0.05208087038675804</v>
+        <v>0.04764256498095409</v>
       </c>
       <c r="T13">
-        <v>0.05208087038675804</v>
+        <v>0.0476425649809541</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H14">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I14">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J14">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N14">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O14">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P14">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q14">
-        <v>8.937511506359998</v>
+        <v>12.59107089543333</v>
       </c>
       <c r="R14">
-        <v>80.43760355723998</v>
+        <v>113.3196380589</v>
       </c>
       <c r="S14">
-        <v>0.02847692288342266</v>
+        <v>0.0314667987369918</v>
       </c>
       <c r="T14">
-        <v>0.02847692288342266</v>
+        <v>0.03146679873699181</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H15">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I15">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J15">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N15">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O15">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P15">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q15">
-        <v>1.987206352722</v>
+        <v>2.530584303479555</v>
       </c>
       <c r="R15">
-        <v>17.884857174498</v>
+        <v>22.775258731316</v>
       </c>
       <c r="S15">
-        <v>0.006331686624363222</v>
+        <v>0.006324274370773544</v>
       </c>
       <c r="T15">
-        <v>0.006331686624363223</v>
+        <v>0.006324274370773547</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H16">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I16">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J16">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N16">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O16">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P16">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q16">
-        <v>8.793392720895</v>
+        <v>9.804999092818223</v>
       </c>
       <c r="R16">
-        <v>79.140534488055</v>
+        <v>88.24499183536399</v>
       </c>
       <c r="S16">
-        <v>0.02801772800162376</v>
+        <v>0.02450402635585189</v>
       </c>
       <c r="T16">
-        <v>0.02801772800162376</v>
+        <v>0.0245040263558519</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H17">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I17">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J17">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N17">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O17">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P17">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q17">
-        <v>11.17482657088889</v>
+        <v>14.08317934341467</v>
       </c>
       <c r="R17">
-        <v>100.573439138</v>
+        <v>126.748614090732</v>
       </c>
       <c r="S17">
-        <v>0.03560551214601226</v>
+        <v>0.035195780697011</v>
       </c>
       <c r="T17">
-        <v>0.03560551214601226</v>
+        <v>0.03519578069701101</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H18">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I18">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J18">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>166.821129</v>
       </c>
       <c r="O18">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P18">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q18">
-        <v>18.021056352716</v>
+        <v>18.215810752983</v>
       </c>
       <c r="R18">
-        <v>162.189507174444</v>
+        <v>163.942296776847</v>
       </c>
       <c r="S18">
-        <v>0.05741914085021561</v>
+        <v>0.04552378868767539</v>
       </c>
       <c r="T18">
-        <v>0.05741914085021561</v>
+        <v>0.04552378868767541</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H19">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I19">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J19">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N19">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O19">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P19">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q19">
-        <v>9.85360321790222</v>
+        <v>12.03111652415</v>
       </c>
       <c r="R19">
-        <v>88.68242896111998</v>
+        <v>108.28004871735</v>
       </c>
       <c r="S19">
-        <v>0.03139579722614842</v>
+        <v>0.03006739660119237</v>
       </c>
       <c r="T19">
-        <v>0.03139579722614842</v>
+        <v>0.03006739660119237</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H20">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I20">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J20">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N20">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O20">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P20">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q20">
-        <v>2.190894288402666</v>
+        <v>2.418043300859333</v>
       </c>
       <c r="R20">
-        <v>19.718048595624</v>
+        <v>21.762389707734</v>
       </c>
       <c r="S20">
-        <v>0.006980682223701392</v>
+        <v>0.006043019098007651</v>
       </c>
       <c r="T20">
-        <v>0.006980682223701392</v>
+        <v>0.006043019098007653</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H21">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I21">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J21">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N21">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O21">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P21">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q21">
-        <v>9.694712308815555</v>
+        <v>9.368947850787332</v>
       </c>
       <c r="R21">
-        <v>87.25241077934</v>
+        <v>84.320530657086</v>
       </c>
       <c r="S21">
-        <v>0.03088953503429356</v>
+        <v>0.02341427499268724</v>
       </c>
       <c r="T21">
-        <v>0.03088953503429356</v>
+        <v>0.02341427499268724</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H22">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I22">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J22">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>34.48183333333333</v>
+        <v>42.99144133333333</v>
       </c>
       <c r="N22">
-        <v>103.4455</v>
+        <v>128.974324</v>
       </c>
       <c r="O22">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="P22">
-        <v>0.2193934666657199</v>
+        <v>0.2509605789056467</v>
       </c>
       <c r="Q22">
-        <v>6.477918125222223</v>
+        <v>10.26839111862311</v>
       </c>
       <c r="R22">
-        <v>58.301263127</v>
+        <v>92.415520067608</v>
       </c>
       <c r="S22">
-        <v>0.02064010488443098</v>
+        <v>0.02566210605641318</v>
       </c>
       <c r="T22">
-        <v>0.02064010488443098</v>
+        <v>0.02566210605641318</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H23">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I23">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J23">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>166.821129</v>
       </c>
       <c r="O23">
-        <v>0.3538043298587108</v>
+        <v>0.3246035785195009</v>
       </c>
       <c r="P23">
-        <v>0.3538043298587107</v>
+        <v>0.324603578519501</v>
       </c>
       <c r="Q23">
-        <v>10.446598597514</v>
+        <v>13.281593935102</v>
       </c>
       <c r="R23">
-        <v>94.01938737762602</v>
+        <v>119.534345415918</v>
       </c>
       <c r="S23">
-        <v>0.0332852139483998</v>
+        <v>0.03319250973432963</v>
       </c>
       <c r="T23">
-        <v>0.0332852139483998</v>
+        <v>0.03319250973432964</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H24">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I24">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J24">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.40497333333333</v>
+        <v>36.72715</v>
       </c>
       <c r="N24">
-        <v>91.21491999999999</v>
+        <v>110.18145</v>
       </c>
       <c r="O24">
-        <v>0.1934541136195998</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="P24">
-        <v>0.1934541136195997</v>
+        <v>0.2143930638214748</v>
       </c>
       <c r="Q24">
-        <v>5.712020180275555</v>
+        <v>8.772181838433333</v>
       </c>
       <c r="R24">
-        <v>51.40818162248</v>
+        <v>78.94963654590001</v>
       </c>
       <c r="S24">
-        <v>0.01819978168044991</v>
+        <v>0.02192287555893207</v>
       </c>
       <c r="T24">
-        <v>0.01819978168044991</v>
+        <v>0.02192287555893208</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H25">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I25">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J25">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.760378</v>
+        <v>7.381512666666667</v>
       </c>
       <c r="N25">
-        <v>20.281134</v>
+        <v>22.144538</v>
       </c>
       <c r="O25">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603855</v>
       </c>
       <c r="P25">
-        <v>0.04301345439068881</v>
+        <v>0.04308924368603857</v>
       </c>
       <c r="Q25">
-        <v>1.270036159510667</v>
+        <v>1.763054616399556</v>
       </c>
       <c r="R25">
-        <v>11.430325435596</v>
+        <v>15.867491547596</v>
       </c>
       <c r="S25">
-        <v>0.004046621002703832</v>
+        <v>0.00440611328752746</v>
       </c>
       <c r="T25">
-        <v>0.004046621002703832</v>
+        <v>0.004406113287527462</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H26">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I26">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J26">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.91468833333333</v>
+        <v>28.60040066666667</v>
       </c>
       <c r="N26">
-        <v>89.74406500000001</v>
+        <v>85.801202</v>
       </c>
       <c r="O26">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="P26">
-        <v>0.1903346354652808</v>
+        <v>0.1669535350673389</v>
       </c>
       <c r="Q26">
-        <v>5.61991295217889</v>
+        <v>6.831129431498223</v>
       </c>
       <c r="R26">
-        <v>50.57921656961</v>
+        <v>61.480164883484</v>
       </c>
       <c r="S26">
-        <v>0.01790630732468006</v>
+        <v>0.01707192158256034</v>
       </c>
       <c r="T26">
-        <v>0.01790630732468006</v>
+        <v>0.01707192158256035</v>
       </c>
     </row>
   </sheetData>
